--- a/results/I3_N5_M2_T30_C100_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676376</v>
+        <v>837.2557288806674</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9920001029968262</v>
+        <v>1.333999872207642</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.95990767142885</v>
+        <v>8.228767448138305</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.695361957914272</v>
+        <v>5.524809938640669</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2215.409999999726</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,12 +628,23 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -907,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>26.23964284834953</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.60181147454993</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.48909622152294</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,13 +1082,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1088,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1102,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1116,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1130,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1141,71 +1152,15 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6099999999933</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.594999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2399999999925</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4399999999932</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6549999999934</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.1150000000405</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7650000000415</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5600000000434</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4950000000429</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.0100000000441</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.0700000000088</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.54000000000998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.91000000000895</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.97000000000844</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.7450000000099</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>191.5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.2849999999528</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>195.4399999999497</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>191.6949999999581</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>189.2199999999523</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>293.2249999999343</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>285.4049999999309</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>293.7049999999302</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>288.6399999999369</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>292.7849999999283</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>132.1150000000581</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>133.7650000000605</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>121.5600000000587</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.4950000000618</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>132.0100000000612</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>293.2249999999191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>285.4049999999158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>293.7049999999151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>288.63999999992</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7849999999113</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.11500000005617</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76500000005899</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.56000000005724</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>34.49500000006037</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>32.01000000005979</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>193.2249999999169</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>185.4049999999136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>193.7049999999128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>188.6399999999178</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>192.7849999999091</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2153,7 +2108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,7 +2190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2246,7 +2201,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2257,7 +2212,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2223,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,7 +2234,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2340,61 +2295,6 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
